--- a/biology/Zoologie/Andinoacara/Andinoacara.xlsx
+++ b/biology/Zoologie/Andinoacara/Andinoacara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andinoacara est un genre de poissons d'eau douce de la famille des Cichlidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les espèces, ces poissons se rencontrent en Amérique centrale ou en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les espèces, ces poissons se rencontrent en Amérique centrale ou en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (7 janvier 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (7 janvier 2024) :
 Andinoacara biseriatus (Regan, 1913)
 Andinoacara blombergi Wijkmark, Kullander &amp; Barriga Salazar, 2012
 Andinoacara coeruleopunctatus (Kner, 1863)
@@ -580,9 +596,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Andinoacara Musilová (d), Říčan (d) &amp; Novák (d), 2009[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Andinoacara Musilová (d), Říčan (d) &amp; Novák (d), 2009,.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en + fr + de) Z. Musilová, O. Říčan et J. Novák, « Phylogeny of the Neotropical cichlid fish tribe Cichlasomatini (Teleostei: Cichlidae) based on morphological and molecular data, with the description of a new genus », Journal of Zoological Systematics and Evolutionary Research, Wiley-Blackwell, vol. 47, no 3,‎ août 2009, p. 234-247 (ISSN 0947-5745 et 1439-0469, OCLC 45232394, DOI 10.1111/J.1439-0469.2009.00528.X, lire en ligne)</t>
         </is>
